--- a/Companies/Diversified/ITC Ltd/Pruned_Excel/3_Mar16_Mar17.xlsx
+++ b/Companies/Diversified/ITC Ltd/Pruned_Excel/3_Mar16_Mar17.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,14 +435,10 @@
   <cols>
     <col width="50" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Mar '16</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '16</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '16</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '16</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Mar '17</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '16</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '16</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '16</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '16</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>10,062.38</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>9,957.66</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9,535.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>9,248.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>11,125.54</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>9,248.39</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9,535.47</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>9,957.66</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10,062.38</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>11125.54</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>9248.389999999999</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>9985.888000000001</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>106.35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>96.38</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>125.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>125.24</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>96.38</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>106.35</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>125.24</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>96.38</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>109.3233333333333</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>10,168.73</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10,054.04</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9,660.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>9,248.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>11,125.54</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>9,248.39</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9,660.71</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10,054.04</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10,168.73</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>11125.54</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>9248.389999999999</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>10051.482</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>3,033.84</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2,880.04</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3,000.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2,912.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>2,972.84</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2,912.58</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3,000.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2,880.04</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3,033.84</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>3033.84</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>2880.04</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>2959.88</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>819.82</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1,004.84</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>501.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>864.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>1,195.73</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>864.89</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>501.11</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1,004.84</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>819.82</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1195.73</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>501.11</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>877.278</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>125.98</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>360.70</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>170.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-400.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>514.23</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-400.90</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>170.14</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>360.70</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>125.98</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>514.23</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-400.9</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>154.03</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>465.35</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>700.31</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>600.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>572.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>571.36</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>572.31</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>600.33</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>700.31</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>465.35</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>700.3099999999999</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>465.35</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>581.932</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>254.89</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>261.25</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>268.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>266.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>241.81</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>266.54</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>268.44</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>261.25</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>254.89</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>268.44</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>241.81</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>258.586</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>2,036.66</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1,581.92</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,759.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,753.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>1,995.99</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1,753.12</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1,759.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1,581.92</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2,036.66</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>2036.66</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>1581.92</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>1825.338</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>3,432.19</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3,264.98</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3,361.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3,279.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>3,633.58</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3,279.85</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3,361.59</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3,264.98</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3,432.19</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>3633.58</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>3264.98</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>3394.438</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>411.60</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>420.52</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>475.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>687.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>402.10</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>687.94</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>475.35</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>420.52</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>411.60</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>687.9400000000001</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>402.1</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>479.5020000000001</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>3,843.79</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3,685.50</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3,836.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3,967.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>4,035.68</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3,967.79</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3,836.94</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3,685.50</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3,843.79</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>4035.68</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>3685.5</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>3873.94</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>13.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>-11.46</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>13.59</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>10.72</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>10.10</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>12.27</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>-11.46</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>7.044</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>3,831.52</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3,675.40</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3,826.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3,954.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>4,047.14</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>3,954.20</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3,826.22</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3,675.40</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3,831.52</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>4047.14</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>3675.4</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>3866.896</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>3,831.52</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3,675.40</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3,826.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3,954.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>4,047.14</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>3,954.20</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3,826.22</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3,675.40</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3,831.52</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>4047.14</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>3675.4</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>3866.896</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>1,336.32</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1,290.73</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1,326.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1,307.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>1,377.67</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1,307.47</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1,326.19</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1,290.73</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1,336.32</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>1377.67</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>1290.73</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>1327.676</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>2,495.20</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2,384.67</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2,500.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2,646.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>2,669.47</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2,646.73</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2,500.03</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2,384.67</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2,495.20</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>2669.47</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>2384.67</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>2539.22</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>2,495.20</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2,384.67</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2,500.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2,646.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>2,669.47</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2,646.73</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2,500.03</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2,384.67</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2,495.20</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>2669.47</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>2384.67</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>2539.22</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>804.72</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>805.33</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1,211.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1,212.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>1,214.74</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1,212.14</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1,211.16</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>805.33</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>804.72</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>1214.74</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>804.72</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>1049.618</v>
       </c>
     </row>
     <row r="23"/>
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>2.20</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>2.304</v>
       </c>
     </row>
     <row r="26">
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>2.19</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>2.29</v>
       </c>
     </row>
     <row r="27"/>
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>2.20</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>2.304</v>
       </c>
     </row>
     <row r="30">
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>2.19</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>2.29</v>
       </c>
     </row>
     <row r="31"/>
